--- a/Datos bd.xlsx
+++ b/Datos bd.xlsx
@@ -399,7 +399,7 @@
       <x:selection activeCell="C8" sqref="C8 C8:C8"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="27.625313" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="51.786563" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.855469" style="2" customWidth="1"/>
     <x:col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
@@ -464,7 +464,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="27.625313" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="51.786563" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -483,7 +483,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="27.625313" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="51.786563" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
